--- a/Analyse/Classeur1.xlsx
+++ b/Analyse/Classeur1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>TABLE QUESTION</t>
   </si>
@@ -167,6 +167,21 @@
   </si>
   <si>
     <t>S'il n'y a plus de question, on affiche le score</t>
+  </si>
+  <si>
+    <t>lamborghini</t>
+  </si>
+  <si>
+    <t>RESULTAT DE LA REQUETE</t>
+  </si>
+  <si>
+    <t>INNER JOIN</t>
+  </si>
+  <si>
+    <t>LEFT JOIN</t>
+  </si>
+  <si>
+    <t>RIGHT JOIN</t>
   </si>
 </sst>
 </file>
@@ -182,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +225,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -266,6 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -281,6 +303,301 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Ellipse 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15982950" y="2533650"/>
+          <a:ext cx="3143250" cy="3019425"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TABLE QUESTION</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ellipse 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17649825" y="2447925"/>
+          <a:ext cx="3486150" cy="3362325"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TABLE USER_QUESTION</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="844590" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17859375" y="4038600"/>
+          <a:ext cx="844590" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>INNER JOIN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="743217" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="ZoneTexte 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17316450" y="3590925"/>
+          <a:ext cx="743217" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>LEFT JOIN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="839269" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18440400" y="4714875"/>
+          <a:ext cx="839269" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>RIGHT JOIN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="A15:B15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,9 +877,17 @@
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -591,7 +916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -611,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -631,7 +956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -651,7 +976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -671,7 +996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
         <v>5</v>
       </c>
@@ -684,8 +1009,14 @@
       <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E8" s="2">
         <v>6</v>
       </c>
@@ -698,8 +1029,29 @@
       <c r="H8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
         <v>7</v>
       </c>
@@ -712,8 +1064,29 @@
       <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <v>8</v>
       </c>
@@ -726,8 +1099,29 @@
       <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -741,7 +1135,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -757,7 +1151,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -773,7 +1167,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -789,7 +1183,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E15" s="6">
         <v>13</v>
       </c>
@@ -799,7 +1193,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E16" s="6">
         <v>14</v>
       </c>
@@ -808,8 +1202,11 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E17" s="6">
         <v>15</v>
       </c>
@@ -820,8 +1217,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E18" s="6">
         <v>16</v>
       </c>
@@ -830,18 +1230,178 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -858,7 +1418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -875,7 +1435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -888,8 +1448,11 @@
       <c r="D29">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -905,8 +1468,29 @@
       <c r="E30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R30" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -921,11 +1505,56 @@
       </c>
       <c r="E31">
         <v>4</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>7</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>4</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>6</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
